--- a/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
+++ b/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="129">
   <si>
     <t>FICHA</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">La Alta Edad Media </t>
-  </si>
-  <si>
-    <t>1.1 El feudo</t>
   </si>
   <si>
     <t>Texto</t>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>Entender, primero, cuáles fueron los rasgos de la Alta Edad Media para así comprender la cultura occidental europea. Segundo, tener claridad sobre cuáles fueron las transformaciones económicas, políticas y sociales que experimentó el espacio europeo a partir del siglo XIII. Tercero, advertir cómo todo cambio en la estructura económica, social y política comporta una transformación en el pensamiento y en el arte de cada periodo histórico.</t>
+  </si>
+  <si>
+    <t>El feudo</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2081,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3511,8 +3511,8 @@
   <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3564,9 +3564,7 @@
       <c r="B2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3579,10 +3577,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -3597,7 +3595,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -3617,10 +3615,10 @@
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -3634,10 +3632,10 @@
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -3652,7 +3650,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3671,7 +3669,7 @@
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -3686,7 +3684,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -3701,7 +3699,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -3720,12 +3718,12 @@
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="20" t="s">
         <v>70</v>
@@ -3739,7 +3737,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -3754,7 +3752,7 @@
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -3769,7 +3767,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -3788,7 +3786,7 @@
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -3803,7 +3801,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -3822,7 +3820,7 @@
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -3837,12 +3835,12 @@
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>70</v>
@@ -3855,10 +3853,10 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -3872,10 +3870,10 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -3890,7 +3888,7 @@
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -3905,7 +3903,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -3920,7 +3918,7 @@
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -3939,7 +3937,7 @@
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -3957,10 +3955,10 @@
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -3975,12 +3973,12 @@
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I26" s="20" t="s">
         <v>70</v>
@@ -3989,10 +3987,10 @@
     <row r="27" spans="1:9" ht="30">
       <c r="A27" s="23"/>
       <c r="B27" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -4006,10 +4004,10 @@
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -4022,7 +4020,7 @@
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -4035,7 +4033,7 @@
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -4051,10 +4049,10 @@
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -4068,10 +4066,10 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="20"/>
@@ -4084,7 +4082,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="20"/>
@@ -4097,7 +4095,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="20"/>
@@ -4110,7 +4108,7 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="22" t="s">
         <v>39</v>
@@ -4127,7 +4125,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="20"/>
@@ -4140,7 +4138,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="20"/>
@@ -4153,7 +4151,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="20"/>
@@ -4166,7 +4164,7 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="20"/>
@@ -4179,7 +4177,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="20"/>
@@ -4192,7 +4190,7 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="20"/>
@@ -4204,10 +4202,10 @@
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="20"/>
@@ -4220,7 +4218,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="20"/>
@@ -4233,7 +4231,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="20"/>
@@ -4246,7 +4244,7 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="20"/>
@@ -4259,7 +4257,7 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="20"/>
@@ -4272,22 +4270,24 @@
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="20"/>
+      <c r="I47" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
@@ -4300,12 +4300,12 @@
       <c r="C49" s="23"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I49" s="20" t="s">
         <v>70</v>
@@ -4317,12 +4317,12 @@
       <c r="C50" s="23"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>70</v>
@@ -4331,14 +4331,14 @@
     <row r="51" spans="1:9" ht="15">
       <c r="A51" s="23"/>
       <c r="B51" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
@@ -4351,7 +4351,7 @@
       <c r="C52" s="23"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -4364,7 +4364,7 @@
       <c r="C53" s="23"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -4377,7 +4377,7 @@
       <c r="C54" s="23"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -4390,25 +4390,29 @@
       <c r="C55" s="23"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="28">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="20"/>
+      <c r="H56" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="30">
       <c r="A57" s="23"/>
@@ -4416,7 +4420,7 @@
       <c r="C57" s="23"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -4432,10 +4436,10 @@
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
       <c r="D58" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -4448,7 +4452,7 @@
       <c r="C59" s="23"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -4461,7 +4465,7 @@
       <c r="C60" s="23"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
@@ -4474,7 +4478,7 @@
       <c r="C61" s="23"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
@@ -4487,7 +4491,7 @@
       <c r="C62" s="23"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
@@ -4503,16 +4507,16 @@
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="G63" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H63" s="24"/>
       <c r="I63" s="20"/>
@@ -4525,7 +4529,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="20"/>
@@ -4538,7 +4542,7 @@
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H65" s="24"/>
       <c r="I65" s="20"/>
@@ -4551,7 +4555,7 @@
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="20"/>
@@ -4564,7 +4568,7 @@
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H67" s="22" t="s">
         <v>46</v>
@@ -4580,10 +4584,10 @@
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="20"/>
@@ -4595,10 +4599,10 @@
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="20"/>
@@ -4611,7 +4615,7 @@
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="20"/>
@@ -4624,7 +4628,7 @@
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
       <c r="G71" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H71" s="24"/>
       <c r="I71" s="20"/>
@@ -4636,10 +4640,10 @@
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="20"/>
@@ -4651,10 +4655,10 @@
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="20"/>
@@ -4667,7 +4671,7 @@
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="20"/>
@@ -4680,7 +4684,7 @@
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
       <c r="G75" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H75" s="14" t="s">
         <v>47</v>
@@ -4697,7 +4701,7 @@
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>48</v>
@@ -4714,10 +4718,10 @@
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
       <c r="G77" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I77" s="20" t="s">
         <v>70</v>
@@ -4728,10 +4732,10 @@
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
@@ -4744,7 +4748,7 @@
       <c r="C79" s="23"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
@@ -4762,10 +4766,10 @@
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="20"/>
@@ -4778,7 +4782,7 @@
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H81" s="24"/>
       <c r="I81" s="20"/>
@@ -4791,7 +4795,7 @@
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
       <c r="G82" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H82" s="24"/>
       <c r="I82" s="20"/>
@@ -4804,7 +4808,7 @@
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H83" s="24"/>
       <c r="I83" s="20"/>
@@ -4817,7 +4821,7 @@
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H84" s="24"/>
       <c r="I84" s="20"/>
@@ -4829,10 +4833,10 @@
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H85" s="24"/>
       <c r="I85" s="20"/>
@@ -4845,7 +4849,7 @@
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
       <c r="G86" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="20"/>
@@ -4858,10 +4862,10 @@
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I87" s="20" t="s">
         <v>70</v>
@@ -4874,10 +4878,10 @@
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H88" s="24"/>
       <c r="I88" s="20"/>
@@ -4890,7 +4894,7 @@
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H89" s="24"/>
       <c r="I89" s="20"/>
@@ -4903,7 +4907,7 @@
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H90" s="24"/>
       <c r="I90" s="20"/>
@@ -4913,10 +4917,10 @@
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
       <c r="D91" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
@@ -4929,7 +4933,7 @@
       <c r="C92" s="23"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
@@ -4942,12 +4946,12 @@
       <c r="C93" s="23"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
       <c r="H93" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I93" s="20" t="s">
         <v>70</v>
@@ -4958,10 +4962,10 @@
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
@@ -4975,10 +4979,10 @@
       <c r="D95" s="25"/>
       <c r="E95" s="24"/>
       <c r="F95" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="20"/>
@@ -4991,7 +4995,7 @@
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="20"/>
@@ -5004,7 +5008,7 @@
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>52</v>
@@ -5020,10 +5024,10 @@
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="20"/>
@@ -5035,10 +5039,10 @@
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="20"/>
@@ -5048,10 +5052,10 @@
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
@@ -5064,22 +5068,24 @@
       <c r="C101" s="23"/>
       <c r="D101" s="24"/>
       <c r="E101" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I101" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="30">
       <c r="A102" s="23"/>
       <c r="B102" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
@@ -5093,10 +5099,10 @@
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
@@ -5109,7 +5115,7 @@
       <c r="C104" s="23"/>
       <c r="D104" s="24"/>
       <c r="E104" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
@@ -5121,10 +5127,10 @@
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
       <c r="D105" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
@@ -5137,7 +5143,7 @@
       <c r="C106" s="23"/>
       <c r="D106" s="24"/>
       <c r="E106" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F106" s="24"/>
       <c r="G106" s="24"/>
@@ -5152,7 +5158,7 @@
         <v>55</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
@@ -5165,7 +5171,7 @@
       <c r="C108" s="23"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
@@ -5178,7 +5184,7 @@
       <c r="C109" s="23"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
@@ -5194,10 +5200,10 @@
       <c r="B110" s="23"/>
       <c r="C110" s="23"/>
       <c r="D110" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
@@ -5211,10 +5217,10 @@
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
       <c r="F111" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H111" s="24"/>
       <c r="I111" s="20"/>
@@ -5227,7 +5233,7 @@
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
       <c r="G112" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H112" s="24"/>
       <c r="I112" s="20"/>
@@ -5240,7 +5246,7 @@
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
       <c r="G113" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H113" s="24"/>
       <c r="I113" s="20"/>
@@ -5253,7 +5259,7 @@
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
       <c r="G114" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="20"/>
@@ -5266,7 +5272,7 @@
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
       <c r="G115" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H115" s="22" t="s">
         <v>57</v>
@@ -5283,7 +5289,7 @@
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H116" s="22" t="s">
         <v>58</v>
@@ -5300,7 +5306,7 @@
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
       <c r="G117" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H117" s="24"/>
       <c r="I117" s="20"/>
@@ -5313,7 +5319,7 @@
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="20"/>
@@ -5326,7 +5332,7 @@
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
       <c r="G119" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H119" s="24"/>
       <c r="I119" s="20"/>
@@ -5339,7 +5345,7 @@
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
       <c r="G120" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>59</v>
@@ -5356,7 +5362,7 @@
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="20"/>
@@ -5369,7 +5375,7 @@
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H122" s="24"/>
       <c r="I122" s="20"/>
@@ -5382,7 +5388,7 @@
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="20"/>
@@ -5395,7 +5401,7 @@
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
       <c r="G124" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="20"/>
@@ -5408,7 +5414,7 @@
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H125" s="22" t="s">
         <v>60</v>
@@ -5425,10 +5431,10 @@
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
       <c r="G126" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I126" s="20" t="s">
         <v>70</v>
@@ -5442,7 +5448,7 @@
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
       <c r="G127" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H127" s="22" t="s">
         <v>62</v>
@@ -5458,10 +5464,10 @@
       <c r="D128" s="24"/>
       <c r="E128" s="24"/>
       <c r="F128" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="20"/>
@@ -5474,7 +5480,7 @@
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="20"/>
@@ -5487,7 +5493,7 @@
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
       <c r="G130" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="20"/>
@@ -5500,7 +5506,7 @@
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
       <c r="G131" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H131" s="22" t="s">
         <v>63</v>
@@ -5517,7 +5523,7 @@
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
       <c r="G132" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H132" s="24"/>
       <c r="I132" s="20"/>
@@ -5527,10 +5533,10 @@
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
       <c r="D133" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="24"/>
@@ -5543,12 +5549,12 @@
       <c r="C134" s="23"/>
       <c r="D134" s="24"/>
       <c r="E134" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F134" s="24"/>
       <c r="G134" s="24"/>
       <c r="H134" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I134" s="20" t="s">
         <v>70</v>
@@ -5560,12 +5566,12 @@
       <c r="C135" s="23"/>
       <c r="D135" s="24"/>
       <c r="E135" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F135" s="24"/>
       <c r="G135" s="24"/>
       <c r="H135" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I135" s="20" t="s">
         <v>70</v>
@@ -5574,17 +5580,17 @@
     <row r="136" spans="1:9">
       <c r="A136" s="23"/>
       <c r="B136" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
       <c r="G136" s="24"/>
       <c r="H136" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I136" s="20" t="s">
         <v>68</v>

--- a/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
+++ b/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23120" windowHeight="13400" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23120" windowHeight="13400" tabRatio="729" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="130">
   <si>
     <t>FICHA</t>
   </si>
@@ -423,6 +423,11 @@
   </si>
   <si>
     <t>El feudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoevaluación
+Evalúa tus conocimientos sobre el tema del feudalismo
+</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2943,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2965,9 +2970,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="15">
-      <c r="A2" s="14" t="s">
-        <v>23</v>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="90">
+      <c r="A2" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -3510,7 +3515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>

--- a/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
+++ b/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23120" windowHeight="13400" tabRatio="729" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="23120" windowHeight="13400" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="124">
   <si>
     <t>FICHA</t>
   </si>
@@ -112,9 +112,6 @@
     <t>CS_08_08</t>
   </si>
   <si>
-    <t>Una sociedad estamental</t>
-  </si>
-  <si>
     <t>La nobleza: guerreros y trovadores</t>
   </si>
   <si>
@@ -175,12 +172,6 @@
     <t>Conoce quién fue Marco Polo</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El comercio medieval</t>
-  </si>
-  <si>
-    <t>El renacer del mundo urbano</t>
-  </si>
-  <si>
     <t>La Iglesia en la baja edad media</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>Refuerza tu aprendizaje: El arte gótico</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El arte mudéjar</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -337,9 +325,6 @@
     <t>Las grandes rutas comerciales</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: el comercio medieval</t>
-  </si>
-  <si>
     <t>La ciudad</t>
   </si>
   <si>
@@ -395,9 +380,6 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: el arte gótico</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el arte mudejar</t>
   </si>
   <si>
     <t>Fin de la unidad</t>
@@ -514,7 +496,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,12 +513,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -562,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="575">
+  <cellStyleXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1138,8 +1114,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1172,10 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,8 +1183,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="575">
+  <cellStyles count="587">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1488,6 +1475,12 @@
     <cellStyle name="Hipervínculo" xfId="569" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="571" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1775,6 +1768,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="570" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2045,7 +2044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2085,8 +2084,8 @@
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>127</v>
+      <c r="B3" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2094,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2125,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2276,12 +2275,13 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2296,7 +2296,7 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8">
@@ -2336,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -2344,15 +2344,26 @@
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2362,13 +2373,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2382,13 +2393,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2402,13 +2413,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2422,13 +2433,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -2442,13 +2453,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -2562,13 +2573,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -2585,7 +2596,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -2605,7 +2616,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -2622,13 +2633,13 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -2642,13 +2653,13 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -2662,13 +2673,13 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -2682,13 +2693,13 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
         <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -2702,13 +2713,13 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -2722,13 +2733,13 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -2742,13 +2753,13 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -2762,13 +2773,13 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -2782,13 +2793,13 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -2802,140 +2813,21 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2948,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2970,21 +2862,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="90">
-      <c r="A2" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="90">
+      <c r="A3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4"/>
@@ -3001,6 +2899,7 @@
     <sortCondition ref="C2:C65"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3014,10 +2913,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3047,7 +2946,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3058,7 +2957,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3069,7 +2968,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3080,7 +2979,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3091,7 +2990,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3102,7 +3001,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3113,7 +3012,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3124,36 +3023,40 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>70</v>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="16">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3164,7 +3067,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3175,7 +3078,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3186,7 +3089,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3197,7 +3100,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3208,7 +3111,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3219,7 +3122,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3230,7 +3133,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3241,7 +3144,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3252,7 +3155,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3260,10 +3163,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3271,10 +3174,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3282,10 +3185,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3293,10 +3196,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3304,10 +3207,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3315,10 +3218,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3326,10 +3229,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3337,10 +3240,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3351,7 +3254,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3362,7 +3265,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3373,7 +3276,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3384,7 +3287,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3395,7 +3298,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3403,98 +3306,21 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="42">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>63</v>
+      <c r="B36" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3503,6 +3329,7 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -3513,11 +3340,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3534,31 +3361,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3567,2055 +3394,1970 @@
         <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>70</v>
+      <c r="I4" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="45">
       <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>70</v>
+      <c r="I14" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="45">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="42">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="30">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42">
+      <c r="E18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45">
       <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="45">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="21"/>
+      <c r="B25" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="60">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15">
-      <c r="A25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E29" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="45">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="22"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" ht="15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" ht="45">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15">
+      <c r="A49" s="21"/>
+      <c r="B49" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" ht="28">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="30">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="60">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" ht="45">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="28">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" ht="30">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" ht="30">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" ht="45">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" ht="15">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="30">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" ht="42">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" ht="45">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="22"/>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="I86" s="18"/>
+    </row>
+    <row r="87" spans="1:9" ht="15">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="20" t="s">
+      <c r="E87" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="18"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="18"/>
+    </row>
+    <row r="89" spans="1:9" ht="30">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="30">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" ht="60">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" ht="15">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="23"/>
-      <c r="B27" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="H93" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" ht="30">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" ht="45">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="30">
+      <c r="A98" s="21"/>
+      <c r="B98" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" ht="45">
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="60">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="24" t="s">
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:9" ht="45">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" ht="45">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" ht="30">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="21"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" s="22"/>
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" s="22"/>
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H109" s="22"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110" s="22"/>
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="1:9" ht="15">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="45">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="20" t="s">
+      <c r="H112" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I112" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="22"/>
+      <c r="I113" s="18"/>
+    </row>
+    <row r="114" spans="1:9" ht="15">
+      <c r="A114" s="21"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" s="22"/>
+      <c r="I114" s="18"/>
+    </row>
+    <row r="115" spans="1:9" ht="15">
+      <c r="A115" s="21"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" s="22"/>
+      <c r="I115" s="18"/>
+    </row>
+    <row r="116" spans="1:9" ht="15">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="24" t="s">
+      <c r="H116" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15">
+      <c r="A117" s="21"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H117" s="22"/>
+      <c r="I117" s="18"/>
+    </row>
+    <row r="118" spans="1:9" ht="15">
+      <c r="A118" s="21"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="24" t="s">
+      <c r="H118" s="22"/>
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="1:9" ht="15">
+      <c r="A119" s="21"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="21"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="22"/>
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="1:9" ht="15">
+      <c r="A120" s="21"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" ht="45">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="20" t="s">
+      <c r="H120" s="22"/>
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="1:9" ht="15">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24" t="s">
+      <c r="H121" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30">
+      <c r="A122" s="21"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I122" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="30">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H124" s="22"/>
+      <c r="I124" s="18"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" ht="15">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24" t="s">
+      <c r="H125" s="22"/>
+      <c r="I125" s="18"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="21"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" s="22"/>
+      <c r="I126" s="18"/>
+    </row>
+    <row r="127" spans="1:9" ht="45">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" ht="45">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="30">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15">
-      <c r="A51" s="23"/>
-      <c r="B51" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="23"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" spans="1:9" ht="28">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24" t="s">
+      <c r="H127" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="21"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H128" s="22"/>
+      <c r="I128" s="18"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="18"/>
+    </row>
+    <row r="130" spans="1:9" ht="30">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="30">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="30">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="23"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="20"/>
-    </row>
-    <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="60">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="20"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="20"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="20"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="20"/>
-    </row>
-    <row r="67" spans="1:9" ht="45">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="28">
-      <c r="A68" s="23"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="24"/>
-      <c r="I68" s="20"/>
-    </row>
-    <row r="69" spans="1:9" ht="30">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="20"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H70" s="24"/>
-      <c r="I70" s="20"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="20"/>
-    </row>
-    <row r="72" spans="1:9" ht="30">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="20"/>
-    </row>
-    <row r="73" spans="1:9" ht="45">
-      <c r="A73" s="23"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="20"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="20"/>
-    </row>
-    <row r="75" spans="1:9" ht="15">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="30">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="30">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="20"/>
-    </row>
-    <row r="79" spans="1:9" ht="30">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="42">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H80" s="24"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H81" s="24"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="23"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="20"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H83" s="24"/>
-      <c r="I83" s="20"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H84" s="24"/>
-      <c r="I84" s="20"/>
-    </row>
-    <row r="85" spans="1:9" ht="45">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H85" s="24"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="23"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="20"/>
-    </row>
-    <row r="87" spans="1:9" ht="30">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="30">
-      <c r="A88" s="23"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H88" s="24"/>
-      <c r="I88" s="20"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="23"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H89" s="24"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90" s="24"/>
-      <c r="I90" s="20"/>
-    </row>
-    <row r="91" spans="1:9" ht="15">
-      <c r="A91" s="23"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E91" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="20"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="23"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="20"/>
-    </row>
-    <row r="93" spans="1:9" ht="30">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I93" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="30">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="20"/>
-    </row>
-    <row r="95" spans="1:9" ht="60">
-      <c r="A95" s="23"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="24"/>
-      <c r="I95" s="20"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H96" s="24"/>
-      <c r="I96" s="20"/>
-    </row>
-    <row r="97" spans="1:9" ht="15">
-      <c r="A97" s="23"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H97" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="30">
-      <c r="A98" s="23"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" s="24"/>
-      <c r="I98" s="20"/>
-    </row>
-    <row r="99" spans="1:9" ht="30">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="24"/>
-      <c r="I99" s="20"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="23"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E100" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="20"/>
-    </row>
-    <row r="101" spans="1:9" ht="45">
-      <c r="A101" s="23"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30">
-      <c r="A102" s="23"/>
-      <c r="B102" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="20"/>
-    </row>
-    <row r="103" spans="1:9" ht="45">
-      <c r="A103" s="23"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="22" t="s">
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E103" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="23"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:9" ht="45">
-      <c r="A105" s="23"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="22" t="s">
+      <c r="I130" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E105" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:9" ht="45">
-      <c r="A107" s="23"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="20"/>
-    </row>
-    <row r="109" spans="1:9" ht="30">
-      <c r="A109" s="23"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I109" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="22" t="s">
+      <c r="C131" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="20"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="23"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H111" s="24"/>
-      <c r="I111" s="20"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H112" s="24"/>
-      <c r="I112" s="20"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="23"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H113" s="24"/>
-      <c r="I113" s="20"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="23"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H114" s="24"/>
-      <c r="I114" s="20"/>
-    </row>
-    <row r="115" spans="1:9" ht="15">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H115" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I115" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="45">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="I116" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H117" s="24"/>
-      <c r="I117" s="20"/>
-    </row>
-    <row r="118" spans="1:9" ht="15">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H118" s="24"/>
-      <c r="I118" s="20"/>
-    </row>
-    <row r="119" spans="1:9" ht="15">
-      <c r="A119" s="23"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H119" s="24"/>
-      <c r="I119" s="20"/>
-    </row>
-    <row r="120" spans="1:9" ht="15">
-      <c r="A120" s="23"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H120" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I120" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15">
-      <c r="A121" s="23"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H121" s="24"/>
-      <c r="I121" s="20"/>
-    </row>
-    <row r="122" spans="1:9" ht="15">
-      <c r="A122" s="23"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H122" s="24"/>
-      <c r="I122" s="20"/>
-    </row>
-    <row r="123" spans="1:9" ht="15">
-      <c r="A123" s="23"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="20"/>
-    </row>
-    <row r="124" spans="1:9" ht="15">
-      <c r="A124" s="23"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="20"/>
-    </row>
-    <row r="125" spans="1:9" ht="15">
-      <c r="A125" s="23"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I125" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="30">
-      <c r="A126" s="23"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H126" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I126" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="30">
-      <c r="A127" s="23"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H127" s="22" t="s">
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I131" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="75">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I127" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="23"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G128" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H128" s="24"/>
-      <c r="I128" s="20"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="23"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="20"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="23"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="20"/>
-    </row>
-    <row r="131" spans="1:9" ht="45">
-      <c r="A131" s="23"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="I131" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="23"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="20"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="23"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="20"/>
-    </row>
-    <row r="134" spans="1:9" ht="30">
-      <c r="A134" s="23"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I134" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="30">
-      <c r="A135" s="23"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="22" t="s">
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I135" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="23"/>
-      <c r="B136" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="I136" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="23"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="I137" s="20" t="s">
-        <v>68</v>
+      <c r="I132" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
+++ b/fuentes/contenidos/grado07/guion02/esqueletoGuion_CS_07_02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="23120" windowHeight="13400" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23120" windowHeight="13400" tabRatio="729" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="129">
   <si>
     <t>FICHA</t>
   </si>
@@ -112,6 +112,9 @@
     <t>CS_08_08</t>
   </si>
   <si>
+    <t>Una sociedad estamental</t>
+  </si>
+  <si>
     <t>La nobleza: guerreros y trovadores</t>
   </si>
   <si>
@@ -172,6 +175,12 @@
     <t>Conoce quién fue Marco Polo</t>
   </si>
   <si>
+    <t>Refuerza tu aprendizaje: El comercio medieval</t>
+  </si>
+  <si>
+    <t>El renacer del mundo urbano</t>
+  </si>
+  <si>
     <t>La Iglesia en la baja edad media</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
     <t>Refuerza tu aprendizaje: El arte gótico</t>
   </si>
   <si>
+    <t>Refuerza tu aprendizaje: El arte mudéjar</t>
+  </si>
+  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -325,6 +337,9 @@
     <t>Las grandes rutas comerciales</t>
   </si>
   <si>
+    <t>Refuerza tu aprendizaje: el comercio medieval</t>
+  </si>
+  <si>
     <t>La ciudad</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: el arte gótico</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el arte mudejar</t>
   </si>
   <si>
     <t>Fin de la unidad</t>
@@ -405,11 +423,6 @@
   </si>
   <si>
     <t>El feudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autoevaluación
-Evalúa tus conocimientos sobre el tema del feudalismo
-</t>
   </si>
 </sst>
 </file>
@@ -496,7 +509,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +526,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="587">
+  <cellStyleXfs count="575">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1114,20 +1133,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1160,6 +1167,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1183,11 +1194,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="587">
+  <cellStyles count="575">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1475,12 +1483,6 @@
     <cellStyle name="Hipervínculo" xfId="569" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="571" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1768,12 +1770,6 @@
     <cellStyle name="Hipervínculo visitado" xfId="570" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2084,8 +2080,8 @@
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>121</v>
+      <c r="B3" s="26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2093,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2124,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2275,13 +2271,12 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
@@ -2296,7 +2291,7 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F8">
@@ -2336,7 +2331,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -2344,26 +2339,15 @@
       <c r="F10">
         <v>9</v>
       </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
         <v>10</v>
       </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
@@ -2373,13 +2357,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2393,13 +2377,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2413,13 +2397,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2433,13 +2417,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -2453,13 +2437,13 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -2573,13 +2557,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -2596,7 +2580,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -2616,7 +2600,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -2633,13 +2617,13 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -2653,13 +2637,13 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -2673,13 +2657,13 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -2693,13 +2677,13 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -2713,13 +2697,13 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
         <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>53</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -2733,13 +2717,13 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -2753,13 +2737,13 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -2773,13 +2757,13 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -2793,13 +2777,13 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -2813,21 +2797,140 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>33</v>
       </c>
     </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2841,7 +2944,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2862,27 +2965,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="15">
+      <c r="A2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="90">
-      <c r="A3" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:3" s="4" customFormat="1">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1">
       <c r="A4"/>
@@ -2899,7 +2996,6 @@
     <sortCondition ref="C2:C65"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2913,10 +3009,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2946,7 +3042,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2957,7 +3053,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2968,7 +3064,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2979,7 +3075,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2990,7 +3086,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3001,7 +3097,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3012,7 +3108,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3023,40 +3119,36 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
-      <c r="A10" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>66</v>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3067,7 +3159,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3078,7 +3170,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3089,7 +3181,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3100,7 +3192,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3111,7 +3203,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3122,7 +3214,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3133,7 +3225,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3144,7 +3236,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3155,7 +3247,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3163,10 +3255,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3174,10 +3266,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3185,10 +3277,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3196,10 +3288,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3207,10 +3299,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3218,10 +3310,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3229,10 +3321,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3240,10 +3332,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3254,7 +3346,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3265,7 +3357,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3276,7 +3368,7 @@
         <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3287,7 +3379,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3298,7 +3390,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3306,21 +3398,98 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="42">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>123</v>
+      <c r="B36" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>64</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +3498,6 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -3340,11 +3508,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H133" sqref="H133"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3361,31 +3529,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3394,1970 +3562,2055 @@
         <v>23</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>66</v>
+      <c r="I4" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="28">
       <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
       <c r="A10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="30">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="45">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>66</v>
+      <c r="I14" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="30">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="42">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42">
       <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="45">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="18" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
+      <c r="A25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="23"/>
+      <c r="B27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="60">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" ht="45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="24"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="24"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" ht="15">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" ht="45">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15">
+      <c r="A51" s="23"/>
+      <c r="B51" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" ht="28">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="1:9" ht="30">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="60">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="20"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="24"/>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9" ht="45">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" s="24"/>
+      <c r="I68" s="20"/>
+    </row>
+    <row r="69" spans="1:9" ht="30">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="24"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="24"/>
+      <c r="I70" s="20"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="24"/>
+      <c r="I71" s="20"/>
+    </row>
+    <row r="72" spans="1:9" ht="30">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="24"/>
+      <c r="I72" s="20"/>
+    </row>
+    <row r="73" spans="1:9" ht="45">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" s="24"/>
+      <c r="I73" s="20"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="24"/>
+      <c r="I74" s="20"/>
+    </row>
+    <row r="75" spans="1:9" ht="15">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15">
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="20"/>
+    </row>
+    <row r="79" spans="1:9" ht="30">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="42">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H80" s="24"/>
+      <c r="I80" s="20"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" s="24"/>
+      <c r="I81" s="20"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" s="24"/>
+      <c r="I82" s="20"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" s="24"/>
+      <c r="I83" s="20"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" s="24"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" ht="45">
+      <c r="A85" s="23"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" s="24"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" s="24"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" spans="1:9" ht="30">
+      <c r="A87" s="23"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="30">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" s="24"/>
+      <c r="I88" s="20"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H90" s="24"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" ht="15">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" ht="30">
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="30">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" ht="60">
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" s="24"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="24"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" ht="15">
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="30">
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="24"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" ht="30">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="24"/>
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="1:9" ht="45">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30">
+      <c r="A102" s="23"/>
+      <c r="B102" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="1:9" ht="45">
+      <c r="A103" s="23"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="20"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="20"/>
+    </row>
+    <row r="105" spans="1:9" ht="45">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="20"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="20"/>
+    </row>
+    <row r="107" spans="1:9" ht="45">
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="20"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="20"/>
+    </row>
+    <row r="109" spans="1:9" ht="30">
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="20"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" s="24"/>
+      <c r="I111" s="20"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" s="24"/>
+      <c r="I112" s="20"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" s="24"/>
+      <c r="I113" s="20"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H114" s="24"/>
+      <c r="I114" s="20"/>
+    </row>
+    <row r="115" spans="1:9" ht="15">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="45">
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I116" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" s="24"/>
+      <c r="I117" s="20"/>
+    </row>
+    <row r="118" spans="1:9" ht="15">
+      <c r="A118" s="23"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H118" s="24"/>
+      <c r="I118" s="20"/>
+    </row>
+    <row r="119" spans="1:9" ht="15">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" s="24"/>
+      <c r="I119" s="20"/>
+    </row>
+    <row r="120" spans="1:9" ht="15">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" s="24"/>
+      <c r="I121" s="20"/>
+    </row>
+    <row r="122" spans="1:9" ht="15">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" s="24"/>
+      <c r="I122" s="20"/>
+    </row>
+    <row r="123" spans="1:9" ht="15">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H123" s="24"/>
+      <c r="I123" s="20"/>
+    </row>
+    <row r="124" spans="1:9" ht="15">
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" s="24"/>
+      <c r="I124" s="20"/>
+    </row>
+    <row r="125" spans="1:9" ht="15">
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="30">
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" s="24"/>
+      <c r="I128" s="20"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" s="24"/>
+      <c r="I129" s="20"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H130" s="24"/>
+      <c r="I130" s="20"/>
+    </row>
+    <row r="131" spans="1:9" ht="45">
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" s="24"/>
+      <c r="I132" s="20"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="23"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
+      <c r="I133" s="20"/>
+    </row>
+    <row r="134" spans="1:9" ht="30">
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="30">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="21"/>
-      <c r="B25" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" ht="45">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="18" t="s">
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" spans="1:9" ht="45">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" spans="1:9" ht="15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" spans="1:9" ht="45">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" spans="1:9" ht="28">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="30">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="30">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" spans="1:9" ht="30">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="60">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="18"/>
-    </row>
-    <row r="65" spans="1:9" ht="45">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="28">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="18"/>
-    </row>
-    <row r="67" spans="1:9" ht="30">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H67" s="22"/>
-      <c r="I67" s="18"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="18"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="18"/>
-    </row>
-    <row r="70" spans="1:9" ht="30">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="18"/>
-    </row>
-    <row r="71" spans="1:9" ht="45">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="18"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="22"/>
-      <c r="I72" s="18"/>
-    </row>
-    <row r="73" spans="1:9" ht="15">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H73" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="30">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="18"/>
-    </row>
-    <row r="76" spans="1:9" ht="42">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H76" s="22"/>
-      <c r="I76" s="18"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H77" s="22"/>
-      <c r="I77" s="18"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H78" s="22"/>
-      <c r="I78" s="18"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="18"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H80" s="22"/>
-      <c r="I80" s="18"/>
-    </row>
-    <row r="81" spans="1:9" ht="45">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H81" s="22"/>
-      <c r="I81" s="18"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="18"/>
-    </row>
-    <row r="83" spans="1:9" ht="30">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="30">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H84" s="22"/>
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H85" s="22"/>
-      <c r="I85" s="18"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H86" s="22"/>
-      <c r="I86" s="18"/>
-    </row>
-    <row r="87" spans="1:9" ht="15">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="18"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="18"/>
-    </row>
-    <row r="89" spans="1:9" ht="30">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="30">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="1:9" ht="60">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H91" s="22"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H92" s="22"/>
-      <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="1:9" ht="15">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H93" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="30">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H94" s="22"/>
-      <c r="I94" s="18"/>
-    </row>
-    <row r="95" spans="1:9" ht="30">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H95" s="22"/>
-      <c r="I95" s="18"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="18"/>
-    </row>
-    <row r="97" spans="1:9" ht="45">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="30">
-      <c r="A98" s="21"/>
-      <c r="B98" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="18"/>
-    </row>
-    <row r="99" spans="1:9" ht="45">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="18"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="18"/>
-    </row>
-    <row r="101" spans="1:9" ht="45">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="18"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="18"/>
-    </row>
-    <row r="103" spans="1:9" ht="45">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="18"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="18"/>
-    </row>
-    <row r="105" spans="1:9" ht="30">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I105" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="18"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H107" s="22"/>
-      <c r="I107" s="18"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H108" s="22"/>
-      <c r="I108" s="18"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="21"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H109" s="22"/>
-      <c r="I109" s="18"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H110" s="22"/>
-      <c r="I110" s="18"/>
-    </row>
-    <row r="111" spans="1:9" ht="15">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I111" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="45">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H112" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I112" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H113" s="22"/>
-      <c r="I113" s="18"/>
-    </row>
-    <row r="114" spans="1:9" ht="15">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114" s="22"/>
-      <c r="I114" s="18"/>
-    </row>
-    <row r="115" spans="1:9" ht="15">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H115" s="22"/>
-      <c r="I115" s="18"/>
-    </row>
-    <row r="116" spans="1:9" ht="15">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I116" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H117" s="22"/>
-      <c r="I117" s="18"/>
-    </row>
-    <row r="118" spans="1:9" ht="15">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H118" s="22"/>
-      <c r="I118" s="18"/>
-    </row>
-    <row r="119" spans="1:9" ht="15">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H119" s="22"/>
-      <c r="I119" s="18"/>
-    </row>
-    <row r="120" spans="1:9" ht="15">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H120" s="22"/>
-      <c r="I120" s="18"/>
-    </row>
-    <row r="121" spans="1:9" ht="15">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H121" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I121" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="30">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H122" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="30">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H123" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I123" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="18"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H125" s="22"/>
-      <c r="I125" s="18"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="21"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="18"/>
-    </row>
-    <row r="127" spans="1:9" ht="45">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H127" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I127" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="21"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H128" s="22"/>
-      <c r="I128" s="18"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="21"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F129" s="22"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="18"/>
-    </row>
-    <row r="130" spans="1:9" ht="30">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I130" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I131" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="75">
-      <c r="A132" s="21"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I132" s="18" t="s">
-        <v>64</v>
+      <c r="I137" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
